--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="15240" windowHeight="7160" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15240" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>other industries</t>
   </si>
   <si>
-    <t>Not specified in California model</t>
+    <t>This variable is not avaiable in the initial specification of the California model</t>
   </si>
 </sst>
 </file>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -138,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,22 +563,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.1796875" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -598,22 +598,22 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>

--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,43 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr updateLinks="never"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfICaWHR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="15240" windowHeight="7155"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="PPRiEYFUfICaWHR" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="PPRiFUfICaWHR" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="Results_EnergyFunctionalUnit">#REF!</definedName>
-    <definedName name="Results_EnergyUnit_Emission">#REF!</definedName>
-    <definedName name="Results_EnergyUnit_Energy">#REF!</definedName>
-    <definedName name="Results_ServiceFunctionalUnit">#REF!</definedName>
-    <definedName name="Results_ServiceUnit_Emission">#REF!</definedName>
-    <definedName name="Results_ServiceUnit_Energy">#REF!</definedName>
-    <definedName name="Veh_Type_Option">[1]Inputs!$E$16</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>PPRiEYFUfICaWHR Potential Perc Reduction in End Year Fuel Use from Increased Cogen and Waste Heat Recovery</t>
-  </si>
-  <si>
-    <t>Pot Perc Red in Fuel Use</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Institute</t>
+  </si>
+  <si>
+    <t>Reinventing Fire</t>
+  </si>
+  <si>
+    <t>http://www.rmi.org/RFGraph-US_industry_energy_saving_potential</t>
+  </si>
+  <si>
+    <t>Book page 127, Figure 4-2 (or see link above)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>2050 business-as-usual</t>
+  </si>
+  <si>
+    <t>Energy Use (quadrillion BTU/yr)</t>
+  </si>
+  <si>
+    <t>Percentage Savings in 2050</t>
+  </si>
+  <si>
+    <t>Percentage Savings in 2030 (model end year)</t>
+  </si>
+  <si>
+    <t>CHP waste heat</t>
+  </si>
+  <si>
+    <t>Model End Year</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>We do not apply this potential to Agriculture, due to its lack of large, heat-generating,</t>
+  </si>
+  <si>
+    <t>stationary equipment compared to other industries.</t>
   </si>
   <si>
     <t>cement and other carbonates</t>
@@ -64,17 +92,28 @@
     <t>other industries</t>
   </si>
   <si>
-    <t>This variable is not avaiable in the initial specification of the California model</t>
+    <t>PPRiFUfICaWHR Potential Perc Reduction in Fuel Use from Increased Cogen and Waste Heat Recovery</t>
+  </si>
+  <si>
+    <t>Pot Perc Red in Fuel Use (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +130,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,28 +173,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,129 +214,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Overview"/>
-      <sheetName val="Inputs"/>
-      <sheetName val="Results"/>
-      <sheetName val="Petroleum"/>
-      <sheetName val="NG"/>
-      <sheetName val="MeOH&amp;FTD"/>
-      <sheetName val="EtOH"/>
-      <sheetName val="Electric"/>
-      <sheetName val="Hydrogen"/>
-      <sheetName val="BioOil"/>
-      <sheetName val="Algae"/>
-      <sheetName val="RNG"/>
-      <sheetName val="Pyrolysis&amp;IDL"/>
-      <sheetName val="IBR"/>
-      <sheetName val="PTF"/>
-      <sheetName val="Fuel_Prod_TS"/>
-      <sheetName val="EF_TS"/>
-      <sheetName val="AgMining_EF_TS"/>
-      <sheetName val="EF"/>
-      <sheetName val="WCF"/>
-      <sheetName val="Fuel_Specs"/>
-      <sheetName val="Car_TS"/>
-      <sheetName val="LDT1_TS"/>
-      <sheetName val="LDT2_TS"/>
-      <sheetName val="Vehicles"/>
-      <sheetName val="Urban_Shares"/>
-      <sheetName val="Compression"/>
-      <sheetName val="Coal"/>
-      <sheetName val="T&amp;D_Flowcharts"/>
-      <sheetName val="T&amp;D"/>
-      <sheetName val="Uranium"/>
-      <sheetName val="Ag_Inputs"/>
-      <sheetName val="Enzymes_Yeast"/>
-      <sheetName val="Pretreatment"/>
-      <sheetName val="Catalyst"/>
-      <sheetName val="Bioproducts"/>
-      <sheetName val="E-D Additives"/>
-      <sheetName val="OilGasCoalInfra"/>
-      <sheetName val="ElecInfra"/>
-      <sheetName val="Woody"/>
-      <sheetName val="HDV_TS"/>
-      <sheetName val="HDV_WTW"/>
-      <sheetName val="JetFuel_WTP"/>
-      <sheetName val="JetFuel_PTWa"/>
-      <sheetName val="JetFuel_WTWa"/>
-      <sheetName val="Rail_PTW"/>
-      <sheetName val="Rail_WTW"/>
-      <sheetName val="MarineFuel_PTH"/>
-      <sheetName val="MarineFuel_WTH"/>
-      <sheetName val="Dist_Spec"/>
-      <sheetName val="Forecast_Specs"/>
-      <sheetName val="Forecast_Deleted"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="16">
-          <cell r="E16">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -320,9 +267,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -355,9 +302,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -561,124 +508,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.1328125" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="45.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <f>-B3/B2</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <f>B5*(B6-2010)/(2050-2010)</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.73046875" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfICaWHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/pprifuficawhr/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA73C0-A0CF-034C-A051-9F7D779764D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
+    <workbookView xWindow="4480" yWindow="1180" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="PPRiFUfICaWHR" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -62,46 +74,100 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>We do not apply this potential to Agriculture, due to its lack of large, heat-generating,</t>
-  </si>
-  <si>
     <t>stationary equipment compared to other industries.</t>
   </si>
   <si>
-    <t>cement and other carbonates</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum systems</t>
-  </si>
-  <si>
-    <t>iron and steel</t>
-  </si>
-  <si>
-    <t>chemicals</t>
-  </si>
-  <si>
-    <t>mining</t>
-  </si>
-  <si>
-    <t>waste management</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>other industries</t>
-  </si>
-  <si>
     <t>PPRiFUfICaWHR Potential Perc Reduction in Fuel Use from Increased Cogen and Waste Heat Recovery</t>
   </si>
   <si>
-    <t>Pot Perc Red in Fuel Use (dimensionless)</t>
+    <t>agriculture and forestry 01T03</t>
+  </si>
+  <si>
+    <t>coal mining 05</t>
+  </si>
+  <si>
+    <t>oil and gas extraction 06</t>
+  </si>
+  <si>
+    <t>other mining and quarrying 07T08</t>
+  </si>
+  <si>
+    <t>food beverage and tobacco 10T12</t>
+  </si>
+  <si>
+    <t>textiles apparel and leather 13T15</t>
+  </si>
+  <si>
+    <t>wood products 16</t>
+  </si>
+  <si>
+    <t>pulp paper and printing 17T18</t>
+  </si>
+  <si>
+    <t>refined petroleum and coke 19</t>
+  </si>
+  <si>
+    <t>chemicals 20</t>
+  </si>
+  <si>
+    <t>rubber and plastic products 22</t>
+  </si>
+  <si>
+    <t>glass and glass products 231</t>
+  </si>
+  <si>
+    <t>cement and other nonmetallic minerals 239</t>
+  </si>
+  <si>
+    <t>iron and steel 241</t>
+  </si>
+  <si>
+    <t>other metals 242</t>
+  </si>
+  <si>
+    <t>metal products except machinery and vehicles 25</t>
+  </si>
+  <si>
+    <t>computers and electronics 26</t>
+  </si>
+  <si>
+    <t>appliances and electrical equipment 27</t>
+  </si>
+  <si>
+    <t>other machinery 28</t>
+  </si>
+  <si>
+    <t>road vehicles 29</t>
+  </si>
+  <si>
+    <t>nonroad vehicles 30</t>
+  </si>
+  <si>
+    <t>other manufacturing 31T33</t>
+  </si>
+  <si>
+    <t>energy pipelines and gas processing 352T353</t>
+  </si>
+  <si>
+    <t>water and waste 36T39</t>
+  </si>
+  <si>
+    <t>construction 41T43</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>Pot Perc Red in Fuel Use</t>
+  </si>
+  <si>
+    <t>We do not apply this potential to non-manufacturing indutries due to their lack of large, heat-generating,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -138,7 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,14 +262,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -297,6 +363,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,6 +415,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,23 +607,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.1328125" customWidth="1"/>
-    <col min="3" max="3" width="29.86328125" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,44 +634,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -576,18 +679,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.59765625" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -595,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -603,7 +706,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -611,7 +714,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -620,7 +723,7 @@
         <v>7.8688524590163927E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -628,7 +731,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -643,96 +746,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.73046875" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="B11" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="10">
+        <f>Data!B$7</f>
+        <v>7.8688524590163927E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
